--- a/Jogos_da_Semana_FlashScore_2025-05-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-09.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -686,16 +686,16 @@
         <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -710,7 +710,7 @@
         <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
         <v>29</v>
@@ -719,19 +719,19 @@
         <v>81</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -897,13 +897,13 @@
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -915,7 +915,7 @@
         <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -1034,10 +1034,10 @@
         <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1070,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
@@ -1386,19 +1386,19 @@
         <v>2.55</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -1499,94 +1499,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.65</v>
       </c>
-      <c r="O9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB9" t="n">
         <v>13</v>
       </c>
-      <c r="V9" t="n">
-        <v>9</v>
-      </c>
-      <c r="W9" t="n">
-        <v>24</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AC9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH9" t="n">
         <v>40</v>
       </c>
-      <c r="AD9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>35</v>
-      </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1624,91 +1624,91 @@
         <v>2.07</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.65</v>
       </c>
-      <c r="O10" t="n">
+      <c r="S10" t="n">
         <v>2.1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD10" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1743,16 +1743,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
         <v>9.75</v>
@@ -1779,25 +1779,25 @@
         <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T11" t="n">
         <v>14</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>9.75</v>
@@ -1806,7 +1806,7 @@
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
         <v>32</v>
@@ -1818,19 +1818,19 @@
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
@@ -1880,40 +1880,40 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="O12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="U12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X12" t="n">
         <v>9.75</v>
@@ -1922,34 +1922,34 @@
         <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>50</v>
@@ -1987,49 +1987,49 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T13" t="n">
         <v>7.9</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7.6</v>
-      </c>
       <c r="U13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V13" t="n">
         <v>8</v>
@@ -2038,31 +2038,31 @@
         <v>14</v>
       </c>
       <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB13" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE13" t="n">
         <v>14</v>
       </c>
-      <c r="AC13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>13.5</v>
@@ -2109,66 +2109,66 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="N14" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U14" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="V14" t="n">
         <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
         <v>80</v>
@@ -2177,22 +2177,22 @@
         <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.75</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2239,7 +2239,7 @@
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
         <v>1.13</v>
@@ -2254,7 +2254,7 @@
         <v>2.7</v>
       </c>
       <c r="P15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
@@ -2471,90 +2471,90 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I17" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="U17" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="W17" t="n">
+        <v>175</v>
+      </c>
+      <c r="X17" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>90</v>
       </c>
-      <c r="X17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>60</v>
-      </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG17" t="n">
         <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2592,7 +2592,7 @@
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>2.25</v>
@@ -2610,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2646,7 +2646,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2658,7 +2658,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
         <v>7</v>
@@ -2673,10 +2673,10 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2711,19 +2711,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2744,10 +2744,10 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -2759,7 +2759,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
         <v>12</v>
@@ -2771,13 +2771,13 @@
         <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
         <v>351</v>
@@ -2789,7 +2789,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>81</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
         <v>4.33</v>
@@ -3021,7 +3021,7 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -3132,13 +3132,13 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>81</v>
@@ -3195,13 +3195,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3237,19 +3237,19 @@
         <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
         <v>13</v>
@@ -3282,7 +3282,7 @@
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3317,13 +3317,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3338,10 +3338,10 @@
         <v>2.75</v>
       </c>
       <c r="N24" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
         <v>1.5</v>
@@ -3356,22 +3356,22 @@
         <v>1.73</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="n">
         <v>7.5</v>
@@ -3383,25 +3383,25 @@
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3439,31 +3439,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3478,31 +3478,31 @@
         <v>1.83</v>
       </c>
       <c r="T25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V25" t="n">
         <v>9</v>
       </c>
-      <c r="U25" t="n">
-        <v>13</v>
-      </c>
-      <c r="V25" t="n">
-        <v>11</v>
-      </c>
       <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
         <v>29</v>
       </c>
-      <c r="X25" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>34</v>
-      </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3511,22 +3511,22 @@
         <v>500</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3582,61 +3582,61 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>24</v>
+      </c>
+      <c r="X26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y26" t="n">
         <v>20</v>
-      </c>
-      <c r="V26" t="n">
-        <v>11</v>
-      </c>
-      <c r="W26" t="n">
-        <v>40</v>
-      </c>
-      <c r="X26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>24</v>
       </c>
       <c r="Z26" t="n">
         <v>15.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD26" t="n">
         <v>200</v>
       </c>
       <c r="AE26" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI26" t="n">
         <v>20</v>
       </c>
-      <c r="AI26" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -3671,46 +3671,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="P27" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
         <v>9</v>
@@ -3719,40 +3719,40 @@
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
+        <v>15</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE27" t="n">
         <v>13</v>
       </c>
-      <c r="X27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
@@ -3802,10 +3802,10 @@
         <v>2.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -3814,22 +3814,22 @@
         <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T28" t="n">
         <v>12</v>
@@ -3841,31 +3841,31 @@
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
       </c>
       <c r="AD28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>12</v>
@@ -3880,7 +3880,7 @@
         <v>17</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -4159,13 +4159,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="J31" t="n">
         <v>1.09</v>
@@ -4174,16 +4174,16 @@
         <v>6.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
         <v>1.42</v>
@@ -4192,61 +4192,61 @@
         <v>2.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V31" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="W31" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="X31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y31" t="n">
         <v>40</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>45</v>
       </c>
       <c r="Z31" t="n">
         <v>6.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD31" t="n">
         <v>600</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -4281,13 +4281,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4299,13 +4299,13 @@
         <v>1.28</v>
       </c>
       <c r="M32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4317,34 +4317,34 @@
         <v>1.72</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T32" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V32" t="n">
         <v>11.5</v>
       </c>
-      <c r="U32" t="n">
-        <v>21</v>
-      </c>
-      <c r="V32" t="n">
-        <v>12.5</v>
-      </c>
       <c r="W32" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X32" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="n">
         <v>7.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC32" t="n">
         <v>60</v>
@@ -4353,22 +4353,22 @@
         <v>450</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -4403,13 +4403,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H33" t="n">
         <v>2.77</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.09</v>
@@ -4418,16 +4418,16 @@
         <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
@@ -4436,28 +4436,28 @@
         <v>2.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
         <v>7.1</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V33" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W33" t="n">
         <v>28</v>
       </c>
       <c r="X33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z33" t="n">
         <v>6</v>
@@ -4466,19 +4466,19 @@
         <v>5.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD33" t="n">
         <v>500</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
         <v>10.75</v>
@@ -4487,7 +4487,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
         <v>35</v>
@@ -4528,7 +4528,7 @@
         <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -4558,10 +4558,10 @@
         <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -4597,7 +4597,7 @@
         <v>351</v>
       </c>
       <c r="AE34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF34" t="n">
         <v>15</v>
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4666,28 +4666,28 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="U35" t="n">
         <v>32</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W35" t="n">
         <v>80</v>
       </c>
       <c r="X35" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y35" t="n">
         <v>30</v>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
@@ -4699,19 +4699,19 @@
         <v>175</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AH35" t="n">
         <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
@@ -4749,13 +4749,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I36" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4770,10 +4770,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P36" t="n">
         <v>1.25</v>
@@ -4782,10 +4782,10 @@
         <v>3.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T36" t="n">
         <v>9.5</v>
@@ -4797,7 +4797,7 @@
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X36" t="n">
         <v>12</v>
@@ -4809,7 +4809,7 @@
         <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
@@ -4824,7 +4824,7 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
@@ -4882,16 +4882,16 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O37" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P37" t="n">
         <v>1.38</v>
@@ -4900,10 +4900,10 @@
         <v>2.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T37" t="n">
         <v>8</v>
@@ -4921,28 +4921,28 @@
         <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB37" t="n">
         <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>10.25</v>
@@ -4951,10 +4951,10 @@
         <v>35</v>
       </c>
       <c r="AI37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -4989,13 +4989,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5024,28 +5024,28 @@
         <v>1.62</v>
       </c>
       <c r="T38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V38" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="W38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB38" t="n">
         <v>19.5</v>
@@ -5060,13 +5060,13 @@
         <v>5.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG38" t="n">
         <v>8.25</v>
       </c>
       <c r="AH38" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI38" t="n">
         <v>14</v>
@@ -5464,10 +5464,10 @@
         <v>2.05</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5487,10 +5487,10 @@
         <v>1.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S42" t="n">
         <v>1.6</v>
@@ -5505,7 +5505,7 @@
         <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X42" t="n">
         <v>20</v>
@@ -5514,29 +5514,29 @@
         <v>40</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC42" t="n">
         <v>120</v>
       </c>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI42" t="n">
         <v>45</v>
@@ -5580,10 +5580,10 @@
         <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5591,13 +5591,13 @@
         <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N43" t="n">
         <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P43" t="n">
         <v>1.47</v>
@@ -5612,16 +5612,16 @@
         <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
         <v>15.5</v>
       </c>
       <c r="V43" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X43" t="n">
         <v>30</v>
@@ -5630,7 +5630,7 @@
         <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA43" t="n">
         <v>5.8</v>
@@ -5648,7 +5648,7 @@
         <v>7.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
         <v>9</v>
@@ -5660,7 +5660,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="I44" t="n">
         <v>3.3</v>
@@ -5710,13 +5710,13 @@
         <v>4.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N44" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -5728,16 +5728,16 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T44" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V44" t="n">
         <v>9.75</v>
@@ -5749,37 +5749,37 @@
         <v>26</v>
       </c>
       <c r="Y44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AA44" t="n">
         <v>5</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD44" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE44" t="n">
         <v>7.7</v>
       </c>
       <c r="AF44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
         <v>45</v>
       </c>
       <c r="AI44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ44" t="n">
         <v>40</v>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="J45" t="n">
         <v>1.02</v>
@@ -5838,10 +5838,10 @@
         <v>5.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P45" t="n">
         <v>1.25</v>
@@ -5850,34 +5850,34 @@
         <v>3.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
+        <v>21</v>
+      </c>
+      <c r="U45" t="n">
+        <v>34</v>
+      </c>
+      <c r="V45" t="n">
         <v>19</v>
       </c>
-      <c r="U45" t="n">
-        <v>29</v>
-      </c>
-      <c r="V45" t="n">
-        <v>17</v>
-      </c>
       <c r="W45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="n">
         <v>19</v>
       </c>
       <c r="AA45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB45" t="n">
         <v>15</v>
@@ -5886,25 +5886,25 @@
         <v>41</v>
       </c>
       <c r="AD45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE45" t="n">
         <v>10</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG45" t="n">
         <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI45" t="n">
         <v>11</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -5939,13 +5939,13 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I46" t="n">
         <v>2.5</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.55</v>
       </c>
       <c r="J46" t="n">
         <v>1.03</v>
@@ -5966,19 +5966,19 @@
         <v>2.25</v>
       </c>
       <c r="P46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U46" t="n">
         <v>15</v>
@@ -5993,10 +5993,10 @@
         <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
         <v>7.5</v>
@@ -6005,13 +6005,13 @@
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="n">
         <v>126</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
         <v>15</v>
@@ -6192,10 +6192,10 @@
         <v>4.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
         <v>1.2</v>
@@ -6204,10 +6204,10 @@
         <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P48" t="n">
         <v>1.3</v>
@@ -6647,19 +6647,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
         <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6671,7 +6671,7 @@
         <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
         <v>1.5</v>
@@ -6722,13 +6722,13 @@
         <v>5.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG52" t="n">
         <v>9</v>
       </c>
       <c r="AH52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -6784,16 +6784,16 @@
         <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>2.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P53" t="n">
         <v>1.44</v>
@@ -6906,10 +6906,10 @@
         <v>7</v>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N54" t="n">
         <v>2.5</v>
@@ -7022,22 +7022,22 @@
         <v>2.1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O55" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -7138,10 +7138,10 @@
         <v>1.36</v>
       </c>
       <c r="H56" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -7152,10 +7152,10 @@
         <v>3.4</v>
       </c>
       <c r="N56" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O56" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -7169,7 +7169,7 @@
         <v>6.7</v>
       </c>
       <c r="U56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V56" t="n">
         <v>8.25</v>
@@ -7199,19 +7199,19 @@
         <v>900</v>
       </c>
       <c r="AE56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="n">
         <v>55</v>
       </c>
       <c r="AG56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH56" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
         <v>90</v>
@@ -7485,13 +7485,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7499,7 +7499,7 @@
         <v>1.32</v>
       </c>
       <c r="M59" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N59" t="n">
         <v>1.93</v>
@@ -7514,61 +7514,61 @@
         <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T59" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U59" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V59" t="n">
         <v>8.25</v>
       </c>
       <c r="W59" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
         <v>29</v>
       </c>
       <c r="Z59" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC59" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE59" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF59" t="n">
         <v>26</v>
       </c>
       <c r="AG59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -7603,13 +7603,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I60" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -7637,19 +7637,19 @@
         <v>10</v>
       </c>
       <c r="U60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V60" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W60" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X60" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="n">
         <v>10.75</v>
@@ -7658,31 +7658,31 @@
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
         <v>55</v>
       </c>
       <c r="AD60" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE60" t="n">
         <v>8.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH60" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J61" t="n">
         <v>1.08</v>
@@ -7750,28 +7750,28 @@
         <v>2.63</v>
       </c>
       <c r="R61" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S61" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V61" t="n">
         <v>11</v>
       </c>
       <c r="W61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
       </c>
       <c r="Y61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="n">
         <v>8</v>
@@ -7789,7 +7789,7 @@
         <v>351</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF61" t="n">
         <v>11</v>
@@ -7839,19 +7839,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="J62" t="n">
         <v>1.06</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L62" t="n">
         <v>1.3</v>
@@ -7872,10 +7872,10 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="T62" t="n">
         <v>12</v>
@@ -7896,37 +7896,37 @@
         <v>41</v>
       </c>
       <c r="Z62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC62" t="n">
         <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG62" t="n">
         <v>8.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI62" t="n">
         <v>15</v>
       </c>
       <c r="AJ62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -7961,13 +7961,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
         <v>1.11</v>
@@ -7982,10 +7982,10 @@
         <v>2.63</v>
       </c>
       <c r="N63" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P63" t="n">
         <v>1.53</v>
@@ -7997,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T63" t="n">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>10</v>
       </c>
       <c r="W63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X63" t="n">
         <v>23</v>
@@ -8027,7 +8027,7 @@
         <v>15</v>
       </c>
       <c r="AC63" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD63" t="n">
         <v>451</v>
@@ -8036,7 +8036,7 @@
         <v>8.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG63" t="n">
         <v>13</v>
@@ -8083,13 +8083,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="H64" t="n">
         <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J64" t="n">
         <v>1.06</v>
@@ -8116,25 +8116,25 @@
         <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S64" t="n">
         <v>2.05</v>
       </c>
       <c r="T64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V64" t="n">
         <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y64" t="n">
         <v>26</v>
@@ -8158,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="AF64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J65" t="n">
         <v>1.08</v>
@@ -8232,28 +8232,28 @@
         <v>1.62</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S65" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
       </c>
       <c r="U65" t="n">
+        <v>11</v>
+      </c>
+      <c r="V65" t="n">
         <v>10</v>
       </c>
-      <c r="V65" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
         <v>21</v>
@@ -8274,7 +8274,7 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE65" t="n">
         <v>9</v>
@@ -8283,7 +8283,7 @@
         <v>15</v>
       </c>
       <c r="AG65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
         <v>34</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H66" t="n">
         <v>3.25</v>
@@ -8360,7 +8360,7 @@
         <v>3.25</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S66" t="n">
         <v>2.1</v>
@@ -8449,13 +8449,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J67" t="n">
         <v>1.07</v>
@@ -8470,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8491,7 +8491,7 @@
         <v>7</v>
       </c>
       <c r="U67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V67" t="n">
         <v>9</v>
@@ -8500,7 +8500,7 @@
         <v>19</v>
       </c>
       <c r="X67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y67" t="n">
         <v>29</v>
@@ -8521,7 +8521,7 @@
         <v>301</v>
       </c>
       <c r="AE67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF67" t="n">
         <v>17</v>
@@ -8693,19 +8693,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L69" t="n">
         <v>1.18</v>
@@ -8714,10 +8714,10 @@
         <v>4.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O69" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P69" t="n">
         <v>1.3</v>
@@ -8726,10 +8726,10 @@
         <v>3.4</v>
       </c>
       <c r="R69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S69" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -8815,19 +8815,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H70" t="n">
         <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L70" t="n">
         <v>1.22</v>
@@ -8854,16 +8854,16 @@
         <v>2.2</v>
       </c>
       <c r="T70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V70" t="n">
         <v>9.5</v>
       </c>
       <c r="W70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X70" t="n">
         <v>17</v>
@@ -8887,7 +8887,7 @@
         <v>151</v>
       </c>
       <c r="AE70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF70" t="n">
         <v>17</v>
@@ -8896,10 +8896,10 @@
         <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ70" t="n">
         <v>29</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="H71" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="I71" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8956,53 +8956,53 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="U71" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="W71" t="n">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="X71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y71" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="n">
         <v>15</v>
       </c>
       <c r="AA71" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AF71" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AH71" t="n">
         <v>500</v>
       </c>
       <c r="AI71" t="n">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="AJ71" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72">
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I72" t="n">
         <v>5</v>
@@ -9050,62 +9050,62 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O72" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U72" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="V72" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W72" t="n">
         <v>9.25</v>
       </c>
       <c r="X72" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB72" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD72" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG72" t="n">
         <v>13.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI72" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ72" t="n">
         <v>40</v>
@@ -9143,29 +9143,29 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P73" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -9173,52 +9173,52 @@
         <v>9</v>
       </c>
       <c r="U73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V73" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X73" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y73" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA73" t="n">
         <v>5.7</v>
       </c>
       <c r="AB73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD73" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE73" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AG73" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH73" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AI73" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ73" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -9381,13 +9381,13 @@
         <v>5.5</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J75" t="n">
         <v>1.01</v>
       </c>
       <c r="K75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L75" t="n">
         <v>1.08</v>
@@ -9408,10 +9408,10 @@
         <v>4.5</v>
       </c>
       <c r="R75" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T75" t="n">
         <v>13</v>
@@ -9432,7 +9432,7 @@
         <v>19</v>
       </c>
       <c r="Z75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA75" t="n">
         <v>12</v>
@@ -9530,7 +9530,7 @@
         <v>4.33</v>
       </c>
       <c r="R76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S76" t="n">
         <v>3</v>
@@ -9628,22 +9628,22 @@
         <v>2.2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L77" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N77" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O77" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P77" t="n">
         <v>1.22</v>
@@ -9664,7 +9664,7 @@
         <v>21</v>
       </c>
       <c r="V77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W77" t="n">
         <v>34</v>
@@ -9756,16 +9756,16 @@
         <v>19</v>
       </c>
       <c r="L78" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M78" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O78" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P78" t="n">
         <v>1.25</v>
@@ -9875,7 +9875,7 @@
         <v>1.01</v>
       </c>
       <c r="K79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L79" t="n">
         <v>1.08</v>
@@ -10006,10 +10006,10 @@
         <v>8</v>
       </c>
       <c r="N80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O80" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P80" t="n">
         <v>1.18</v>
@@ -10229,13 +10229,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H82" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J82" t="n">
         <v>1.03</v>
@@ -10250,10 +10250,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O82" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P82" t="n">
         <v>1.29</v>
@@ -10274,7 +10274,7 @@
         <v>11</v>
       </c>
       <c r="V82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W82" t="n">
         <v>17</v>
@@ -10351,7 +10351,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H83" t="n">
         <v>3.9</v>
@@ -10363,7 +10363,7 @@
         <v>1.02</v>
       </c>
       <c r="K83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L83" t="n">
         <v>1.14</v>
@@ -10372,10 +10372,10 @@
         <v>5.5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P83" t="n">
         <v>1.25</v>
@@ -10399,16 +10399,16 @@
         <v>11</v>
       </c>
       <c r="W83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X83" t="n">
         <v>21</v>
       </c>
       <c r="Y83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA83" t="n">
         <v>8</v>
@@ -10473,13 +10473,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>4.33</v>
       </c>
       <c r="I84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J84" t="n">
         <v>1.02</v>
@@ -10512,16 +10512,16 @@
         <v>2.63</v>
       </c>
       <c r="T84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V84" t="n">
         <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X84" t="n">
         <v>13</v>
@@ -10530,19 +10530,19 @@
         <v>17</v>
       </c>
       <c r="Z84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA84" t="n">
         <v>9</v>
       </c>
       <c r="AB84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC84" t="n">
         <v>34</v>
       </c>
       <c r="AD84" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE84" t="n">
         <v>17</v>
@@ -10551,7 +10551,7 @@
         <v>23</v>
       </c>
       <c r="AG84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH84" t="n">
         <v>41</v>
@@ -10726,10 +10726,10 @@
         <v>2.75</v>
       </c>
       <c r="N86" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O86" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P86" t="n">
         <v>1.5</v>
@@ -11182,34 +11182,34 @@
         <v>1.75</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L90" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O90" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P90" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R90" t="n">
         <v>1.73</v>
@@ -11218,16 +11218,16 @@
         <v>2</v>
       </c>
       <c r="T90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
       </c>
       <c r="W90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X90" t="n">
         <v>13</v>
@@ -11236,10 +11236,10 @@
         <v>23</v>
       </c>
       <c r="Z90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA90" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB90" t="n">
         <v>13</v>
@@ -11254,7 +11254,7 @@
         <v>15</v>
       </c>
       <c r="AF90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG90" t="n">
         <v>15</v>
@@ -11263,7 +11263,7 @@
         <v>51</v>
       </c>
       <c r="AI90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ90" t="n">
         <v>41</v>
@@ -11301,13 +11301,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
@@ -11316,40 +11316,40 @@
         <v>9</v>
       </c>
       <c r="L91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N91" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O91" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R91" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S91" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T91" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U91" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V91" t="n">
         <v>10</v>
       </c>
       <c r="W91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X91" t="n">
         <v>21</v>
@@ -11358,7 +11358,7 @@
         <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
@@ -11370,22 +11370,22 @@
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE91" t="n">
         <v>8.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI91" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ91" t="n">
         <v>34</v>
@@ -11545,13 +11545,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J93" t="n">
         <v>1.05</v>
@@ -11560,16 +11560,16 @@
         <v>11</v>
       </c>
       <c r="L93" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M93" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N93" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O93" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P93" t="n">
         <v>1.36</v>
@@ -11578,58 +11578,58 @@
         <v>3</v>
       </c>
       <c r="R93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S93" t="n">
         <v>1.91</v>
       </c>
-      <c r="S93" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T93" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U93" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG93" t="n">
         <v>13</v>
       </c>
-      <c r="AF93" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>17</v>
-      </c>
       <c r="AH93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ93" t="n">
         <v>41</v>
@@ -11676,22 +11676,22 @@
         <v>1.9</v>
       </c>
       <c r="J94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K94" t="n">
         <v>13</v>
       </c>
       <c r="L94" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M94" t="n">
         <v>4.33</v>
       </c>
       <c r="N94" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P94" t="n">
         <v>1.3</v>
@@ -11789,31 +11789,31 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H95" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I95" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K95" t="n">
         <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M95" t="n">
         <v>3.25</v>
       </c>
       <c r="N95" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -11822,25 +11822,25 @@
         <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S95" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U95" t="n">
+        <v>8</v>
+      </c>
+      <c r="V95" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V95" t="n">
-        <v>9</v>
       </c>
       <c r="W95" t="n">
         <v>15</v>
       </c>
       <c r="X95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y95" t="n">
         <v>29</v>
@@ -11852,28 +11852,28 @@
         <v>7</v>
       </c>
       <c r="AB95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC95" t="n">
         <v>51</v>
       </c>
       <c r="AD95" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH95" t="n">
         <v>41</v>
       </c>
       <c r="AI95" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ95" t="n">
         <v>41</v>
@@ -11911,19 +11911,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
       </c>
       <c r="K96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L96" t="n">
         <v>1.22</v>
@@ -11944,10 +11944,10 @@
         <v>3.25</v>
       </c>
       <c r="R96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S96" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T96" t="n">
         <v>19</v>
@@ -11965,7 +11965,7 @@
         <v>67</v>
       </c>
       <c r="Y96" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z96" t="n">
         <v>12</v>
@@ -11974,7 +11974,7 @@
         <v>10</v>
       </c>
       <c r="AB96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
         <v>81</v>
@@ -11987,16 +11987,16 @@
         <v>6</v>
       </c>
       <c r="AG96" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI96" t="n">
         <v>12</v>
       </c>
       <c r="AJ96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -12034,43 +12034,43 @@
         <v>2.25</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L97" t="n">
         <v>1.33</v>
       </c>
       <c r="M97" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N97" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P97" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R97" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S97" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U97" t="n">
         <v>11</v>
@@ -12082,13 +12082,13 @@
         <v>21</v>
       </c>
       <c r="X97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z97" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA97" t="n">
         <v>6.5</v>
@@ -12100,10 +12100,10 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF97" t="n">
         <v>15</v>
@@ -12112,13 +12112,13 @@
         <v>11</v>
       </c>
       <c r="AH97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -12284,13 +12284,13 @@
         <v>2.05</v>
       </c>
       <c r="J99" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K99" t="n">
         <v>13</v>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M99" t="n">
         <v>4.33</v>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
       <c r="W99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X99" t="n">
         <v>26</v>
@@ -12415,28 +12415,28 @@
         <v>1.19</v>
       </c>
       <c r="M100" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N100" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O100" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="P100" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R100" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S100" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T100" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U100" t="n">
         <v>12</v>
@@ -12451,34 +12451,34 @@
         <v>14.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z100" t="n">
         <v>8.75</v>
       </c>
       <c r="AA100" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB100" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC100" t="n">
         <v>40</v>
       </c>
       <c r="AD100" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE100" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF100" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI100" t="n">
         <v>24</v>
@@ -12763,13 +12763,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H103" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I103" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J103" t="n">
         <v>1.03</v>
@@ -12781,52 +12781,52 @@
         <v>1.14</v>
       </c>
       <c r="M103" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O103" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="P103" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q103" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R103" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T103" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V103" t="n">
         <v>8.25</v>
       </c>
       <c r="W103" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="X103" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z103" t="n">
         <v>9.75</v>
       </c>
       <c r="AA103" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC103" t="n">
         <v>45</v>
@@ -12835,22 +12835,22 @@
         <v>250</v>
       </c>
       <c r="AE103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF103" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ103" t="n">
         <v>37</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="104">
@@ -12885,13 +12885,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I104" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="J104" t="n">
         <v>1.03</v>
@@ -12900,16 +12900,16 @@
         <v>17</v>
       </c>
       <c r="L104" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M104" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O104" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P104" t="n">
         <v>1.29</v>
@@ -12957,7 +12957,7 @@
         <v>126</v>
       </c>
       <c r="AE104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF104" t="n">
         <v>10</v>
@@ -13034,10 +13034,10 @@
         <v>2.1</v>
       </c>
       <c r="P105" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R105" t="n">
         <v>1.57</v>
@@ -13067,7 +13067,7 @@
         <v>13</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB105" t="n">
         <v>12</v>
@@ -13243,90 +13243,90 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.65</v>
+        <v>5.9</v>
       </c>
       <c r="H107" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M107" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="N107" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O107" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P107" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R107" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="S107" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="T107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U107" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="V107" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W107" t="n">
+        <v>120</v>
+      </c>
+      <c r="X107" t="n">
         <v>80</v>
       </c>
-      <c r="X107" t="n">
-        <v>50</v>
-      </c>
       <c r="Y107" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA107" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AC107" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD107" t="n">
         <v>900</v>
       </c>
       <c r="AE107" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AF107" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AG107" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH107" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AI107" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ107" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
@@ -13361,25 +13361,25 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H108" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I108" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L108" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M108" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N108" t="n">
         <v>1.95</v>
@@ -13394,55 +13394,55 @@
         <v>2.72</v>
       </c>
       <c r="R108" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S108" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T108" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X108" t="n">
         <v>15.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z108" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD108" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE108" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF108" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG108" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI108" t="n">
         <v>35</v>
